--- a/Словарь.xlsx
+++ b/Словарь.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="692">
   <si>
     <t>antworten</t>
   </si>
@@ -3098,9 +3098,6 @@
     <t>Zustände</t>
   </si>
   <si>
-    <t>[Musik]</t>
-  </si>
-  <si>
     <t>neu</t>
   </si>
   <si>
@@ -3167,111 +3164,15 @@
     <t>offen</t>
   </si>
   <si>
-    <t>geduldig geduldig</t>
-  </si>
-  <si>
-    <t>zuverlässig zuverlässig</t>
-  </si>
-  <si>
-    <t>neugierig neugierig</t>
-  </si>
-  <si>
-    <t>wie schmeckt wohl diese rein</t>
-  </si>
-  <si>
-    <t>ist sehr neugierig</t>
-  </si>
-  <si>
-    <t>nicht schlecht</t>
-  </si>
-  <si>
-    <t>selbstbewusst selbstbewusst</t>
-  </si>
-  <si>
-    <t>schüchtern schüchtern</t>
-  </si>
-  <si>
-    <t>sozial sozial cool</t>
-  </si>
-  <si>
-    <t>mit mir</t>
-  </si>
-  <si>
-    <t>Janosch trinkt nicht gerne allein er ist</t>
-  </si>
-  <si>
-    <t>sehr sozial lieblich</t>
-  </si>
-  <si>
-    <t>sympathisch sympathisch</t>
-  </si>
-  <si>
-    <t>nett nett</t>
-  </si>
-  <si>
-    <t>er Volk Reich erfolgreich Emotionen</t>
-  </si>
-  <si>
     <t>Emotionen</t>
   </si>
   <si>
-    <t>glücklich glücklich müde</t>
-  </si>
-  <si>
-    <t>gestresst gestresst</t>
-  </si>
-  <si>
-    <t>entspannt entspannt</t>
-  </si>
-  <si>
     <t>erik ist müde und gestresst</t>
   </si>
   <si>
-    <t>Janosch hingegen ist glücklich und</t>
-  </si>
-  <si>
     <t>entspannt</t>
   </si>
   <si>
-    <t>wütend wütend</t>
-  </si>
-  <si>
-    <t>nervös nervös</t>
-  </si>
-  <si>
-    <t>traurig traurig</t>
-  </si>
-  <si>
-    <t>ja nur schiebt Blues Musik deshalb</t>
-  </si>
-  <si>
-    <t>spielt er viele traurige Lieder</t>
-  </si>
-  <si>
-    <t>gelangweilt gelangweilt</t>
-  </si>
-  <si>
-    <t>aufgeregt aufgeregt</t>
-  </si>
-  <si>
-    <t>überrascht überrascht</t>
-  </si>
-  <si>
-    <t>Janisch ich habe ein Geschenk für dich</t>
-  </si>
-  <si>
-    <t>wow ein Aufnahmegerät</t>
-  </si>
-  <si>
-    <t>Janus ist überrascht</t>
-  </si>
-  <si>
-    <t>besorgt besorgt</t>
-  </si>
-  <si>
-    <t>verwirrt verwirrt</t>
-  </si>
-  <si>
     <t>was ist los ja du guckst so besorgt</t>
   </si>
   <si>
@@ -3281,24 +3182,15 @@
     <t>was die ganzen zwei Kilo</t>
   </si>
   <si>
-    <t>enttäuscht enttäuscht zu frieden</t>
-  </si>
-  <si>
     <t>zufrieden</t>
   </si>
   <si>
     <t>Bewertungen</t>
   </si>
   <si>
-    <t>leicht leicht</t>
-  </si>
-  <si>
     <t>schwer</t>
   </si>
   <si>
-    <t>schwierig schwierig</t>
-  </si>
-  <si>
     <t>Achtung einfach und leicht und schwer</t>
   </si>
   <si>
@@ -3329,15 +3221,9 @@
     <t>klar</t>
   </si>
   <si>
-    <t>wichtig wichtig</t>
-  </si>
-  <si>
     <t>unwichtig</t>
   </si>
   <si>
-    <t>bekannt bekannt</t>
-  </si>
-  <si>
     <t>Eric es ist total wichtig bis morgen</t>
   </si>
   <si>
@@ -3347,69 +3233,21 @@
     <t>Video geht das klar geht klar</t>
   </si>
   <si>
-    <t>[Applaus]</t>
-  </si>
-  <si>
-    <t>richtig richtig</t>
-  </si>
-  <si>
-    <t>falsch falsch wunderbar</t>
-  </si>
-  <si>
     <t>teuer</t>
   </si>
   <si>
-    <t>billig billig</t>
-  </si>
-  <si>
-    <t>komm mal Erik ich habe mir eine neue Uhr</t>
-  </si>
-  <si>
-    <t>gekauft</t>
-  </si>
-  <si>
-    <t>wunderbar ja</t>
-  </si>
-  <si>
-    <t>gleich gleich</t>
-  </si>
-  <si>
-    <t>perfekt schlimm</t>
-  </si>
-  <si>
     <t>ist das schlimm</t>
   </si>
   <si>
-    <t>speziell speziell</t>
-  </si>
-  <si>
-    <t>ähnlich ähnlich lecker lecker</t>
-  </si>
-  <si>
-    <t>interessant interessant</t>
-  </si>
-  <si>
     <t>eigen</t>
   </si>
   <si>
-    <t>jetzt kann ich meine eigenen Songs</t>
-  </si>
-  <si>
-    <t>aufnehmen</t>
-  </si>
-  <si>
-    <t>spannend spannend</t>
-  </si>
-  <si>
     <t>komplett</t>
   </si>
   <si>
     <t>eine halbe Flasche Wein</t>
   </si>
   <si>
-    <t>ja ich kann doch nicht die ganze Flasche</t>
-  </si>
-  <si>
     <t>möglich</t>
   </si>
   <si>
@@ -3425,45 +3263,6 @@
     <t>Zeitangaben</t>
   </si>
   <si>
-    <t>schnell schnell</t>
-  </si>
-  <si>
-    <t>langsam langsam</t>
-  </si>
-  <si>
-    <t>eins</t>
-  </si>
-  <si>
-    <t>zwei</t>
-  </si>
-  <si>
-    <t>du bist zu langsam mach schneller</t>
-  </si>
-  <si>
-    <t>früh früh</t>
-  </si>
-  <si>
-    <t>spät spät</t>
-  </si>
-  <si>
-    <t>täglich täglich</t>
-  </si>
-  <si>
-    <t>monatlich monatlich</t>
-  </si>
-  <si>
-    <t>jährlich jährlich</t>
-  </si>
-  <si>
-    <t>Janusz hat ein tägliches Ritual er macht</t>
-  </si>
-  <si>
-    <t>einen Mittagsschlaf</t>
-  </si>
-  <si>
-    <t>regelmäßig regelmäßig</t>
-  </si>
-  <si>
     <t>erste</t>
   </si>
   <si>
@@ -3582,6 +3381,159 @@
   </si>
   <si>
     <t>ehrlich</t>
+  </si>
+  <si>
+    <t>geduldig</t>
+  </si>
+  <si>
+    <t>zuverlässig</t>
+  </si>
+  <si>
+    <t>neugierig</t>
+  </si>
+  <si>
+    <t>wie schmeckt wohl diese rein? ist sehr neugierig. nicht schlecht</t>
+  </si>
+  <si>
+    <t>selbstbewusst</t>
+  </si>
+  <si>
+    <t>schüchtern</t>
+  </si>
+  <si>
+    <t>sozial</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>mit mir Janosch trinkt nicht gerne allein. er ist sehr sozial lieblich</t>
+  </si>
+  <si>
+    <t>sympathisch</t>
+  </si>
+  <si>
+    <t>nett</t>
+  </si>
+  <si>
+    <t>glücklich</t>
+  </si>
+  <si>
+    <t>gestresst</t>
+  </si>
+  <si>
+    <t>Janosch hingegen ist glücklich und entspannt</t>
+  </si>
+  <si>
+    <t>wütend</t>
+  </si>
+  <si>
+    <t>nervös</t>
+  </si>
+  <si>
+    <t>traurig</t>
+  </si>
+  <si>
+    <t>ja nur schiebt Blues Musik deshalb spielt er viele traurige Lieder</t>
+  </si>
+  <si>
+    <t>gelangweilt</t>
+  </si>
+  <si>
+    <t>aufgeregt</t>
+  </si>
+  <si>
+    <t>überrascht</t>
+  </si>
+  <si>
+    <t>Janisch ich habe ein Geschenk für dich. wow ein Aufnahmegerät.</t>
+  </si>
+  <si>
+    <t>enttäuscht</t>
+  </si>
+  <si>
+    <t>leicht</t>
+  </si>
+  <si>
+    <t>wichtig</t>
+  </si>
+  <si>
+    <t>bekannt</t>
+  </si>
+  <si>
+    <t>richtig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falsch </t>
+  </si>
+  <si>
+    <t>wunderbar</t>
+  </si>
+  <si>
+    <t>billig</t>
+  </si>
+  <si>
+    <t>komm mal Erik ich habe mir eine neue Uhr gekauft. wunderbar ja</t>
+  </si>
+  <si>
+    <t>gleich</t>
+  </si>
+  <si>
+    <t>schlimm</t>
+  </si>
+  <si>
+    <t>perfekt</t>
+  </si>
+  <si>
+    <t>speziell</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>lecker</t>
+  </si>
+  <si>
+    <t>interessant</t>
+  </si>
+  <si>
+    <t>jetzt kann ich meine eigenen Songs aufnehmen</t>
+  </si>
+  <si>
+    <t>spannend</t>
+  </si>
+  <si>
+    <t>ja ich kann doch nicht die ganze Flasche trinken</t>
+  </si>
+  <si>
+    <t>schnell</t>
+  </si>
+  <si>
+    <t>langsam</t>
+  </si>
+  <si>
+    <t>eins zwei. du bist zu langsam mach schneller</t>
+  </si>
+  <si>
+    <t>früh</t>
+  </si>
+  <si>
+    <t>spät</t>
+  </si>
+  <si>
+    <t>täglich</t>
+  </si>
+  <si>
+    <t>monatlich</t>
+  </si>
+  <si>
+    <t>jährlich</t>
+  </si>
+  <si>
+    <t>Janusz hat ein tägliches Ritual. Er macht einen Mittagsschlaf</t>
+  </si>
+  <si>
+    <t>regelmäßig</t>
   </si>
 </sst>
 </file>
@@ -4011,6 +3963,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4020,13 +3979,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4670,14 +4622,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -4686,21 +4638,21 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="46" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -4732,8 +4684,8 @@
       <c r="I3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
       <c r="M3" s="8" t="s">
         <v>236</v>
       </c>
@@ -10687,10 +10639,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10704,1359 +10656,764 @@
       <c r="A1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="47">
-        <v>0.29930555555555555</v>
-      </c>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25">
+      <c r="A4" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="45" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="45" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="45" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.25">
+      <c r="A15" s="43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="45" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="45" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="46.5">
+      <c r="A31" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>628</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="23.25">
+      <c r="A44" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="45" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="45" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="45" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="45" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="45" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="45" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="45"/>
+    </row>
+    <row r="62" spans="1:2" ht="23.25">
+      <c r="A62" s="43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="48" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="45" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B66" s="45" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="45" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="45" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="45" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="45"/>
+      <c r="B75" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="45" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="23.25">
+      <c r="A81" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="47">
-        <v>0.30208333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="47">
-        <v>0.30624999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7" s="48" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="47">
-        <v>0.30833333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.25">
-      <c r="A9" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
+      <c r="B85" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" s="45" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" s="45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="45" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="45" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" s="45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" s="45" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" s="45" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="45"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="45" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="45" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="B106" s="45" t="s">
         <v>671</v>
       </c>
-      <c r="F10" s="47">
-        <v>0.31319444444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="48" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="45" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="45" t="s">
         <v>672</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="48" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="45" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="45" t="s">
         <v>673</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0.31527777777777777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
-        <v>542</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="F14" s="47">
-        <v>0.31736111111111115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
+      <c r="B111" s="45" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="45" t="s">
         <v>675</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="B16" s="48" t="s">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="F16" s="47">
-        <v>0.32013888888888892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="48" t="s">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="F17" s="48" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>677</v>
-      </c>
-      <c r="F18" s="47">
-        <v>0.32569444444444445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25">
-      <c r="A20" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="F20" s="47">
-        <v>0.32847222222222222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="F22" s="47">
-        <v>0.33055555555555555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="48" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="B117" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="45" t="s">
         <v>680</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="F24" s="47">
-        <v>0.3347222222222222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="B25" s="48" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" s="45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" s="45" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="45"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="45" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125" s="45" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126" s="45" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="23.25">
+      <c r="A128" s="43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="45" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="45" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="45" t="s">
         <v>683</v>
       </c>
-      <c r="F25" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="48" t="s">
-        <v>682</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="F28" s="47">
-        <v>0.33888888888888885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
+      <c r="B131" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="F29" s="48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="48" t="s">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="45" t="s">
         <v>686</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>555</v>
-      </c>
-      <c r="F31" s="47">
-        <v>0.34583333333333338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="45" t="s">
         <v>687</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>556</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="B33" s="48" t="s">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="45" t="s">
         <v>688</v>
       </c>
-      <c r="F33" s="47">
-        <v>0.35069444444444442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="48" t="s">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="45" t="s">
         <v>689</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="48" t="s">
+      <c r="B136" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="F35" s="47">
-        <v>0.35347222222222219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="46.5">
-      <c r="A36" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="F37" s="47">
-        <v>0.35833333333333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="48" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="45" t="s">
         <v>691</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>693</v>
-      </c>
-      <c r="F39" s="47">
-        <v>0.3611111111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="48" t="s">
-        <v>692</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>694</v>
-      </c>
-      <c r="F41" s="47">
-        <v>0.36319444444444443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>695</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="F43" s="47">
-        <v>0.3659722222222222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>696</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>697</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>698</v>
-      </c>
-      <c r="F45" s="47">
-        <v>0.36874999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="48" t="s">
-        <v>699</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="F47" s="47">
-        <v>0.37152777777777773</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="F48" s="48" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="23.25">
-      <c r="A49" s="46" t="s">
-        <v>567</v>
-      </c>
-      <c r="F49" s="47">
-        <v>0.3743055555555555</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="48" t="s">
-        <v>700</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="F51" s="47">
-        <v>0.37777777777777777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="48" t="s">
-        <v>702</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>703</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="48" t="s">
-        <v>704</v>
-      </c>
-      <c r="F53" s="47">
-        <v>0.37986111111111115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>706</v>
-      </c>
-      <c r="F55" s="47">
-        <v>0.38541666666666669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="48" t="s">
-        <v>707</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="F57" s="47">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="F58" s="48" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="F59" s="47">
-        <v>0.39097222222222222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="F60" s="48" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="F61" s="47">
-        <v>0.39374999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="F62" s="48" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="F63" s="47">
-        <v>0.39652777777777781</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="F64" s="48" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="47">
-        <v>0.39930555555555558</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="48" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="45" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="47">
-        <v>0.40208333333333335</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="48" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="45" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="47">
-        <v>0.4055555555555555</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="48" t="s">
+      <c r="B139" s="45" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="47">
-        <v>0.40902777777777777</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="48" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="47">
-        <v>0.41111111111111115</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" s="48" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="47">
-        <v>0.41319444444444442</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" s="48" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="47">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" s="48" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" s="47">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6">
-      <c r="F80" s="48" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" ht="23.25">
-      <c r="F81" s="46" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="47">
-        <v>0.42291666666666666</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="48" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="47">
-        <v>0.4236111111111111</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" s="47">
-        <v>0.42569444444444443</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87" s="48" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88" s="47">
-        <v>0.42777777777777781</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89" s="48" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90" s="47">
-        <v>0.43055555555555558</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="48" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="47">
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="48" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94" s="47">
-        <v>0.43611111111111112</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95" s="48" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96" s="47">
-        <v>0.4381944444444445</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6">
-      <c r="F97" s="48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="47">
-        <v>0.43958333333333338</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" s="48" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" s="47">
-        <v>0.44166666666666665</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" s="48" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" s="47">
-        <v>0.44305555555555554</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" s="48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" s="47">
-        <v>0.44513888888888892</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105" s="48" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" s="47">
-        <v>0.44722222222222219</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" s="48" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" s="47">
-        <v>0.44861111111111113</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109" s="48" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" s="47">
-        <v>0.45069444444444445</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111" s="48" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6">
-      <c r="F112" s="47">
-        <v>0.45347222222222222</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="47">
-        <v>0.45555555555555555</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="48" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="47">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="48" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="47">
-        <v>0.45902777777777781</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="48" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="47">
-        <v>0.46111111111111108</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="48" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="47">
-        <v>0.46319444444444446</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="48" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="47">
-        <v>0.46597222222222223</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" s="48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" s="47">
-        <v>0.46736111111111112</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" s="48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="47">
-        <v>0.47291666666666665</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" s="47">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" s="47">
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" s="47">
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6">
-      <c r="F135" s="48" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6">
-      <c r="F136" s="47">
-        <v>0.48472222222222222</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137" s="48" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" s="47">
-        <v>0.48749999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="6:6">
-      <c r="F139" s="48" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6">
-      <c r="F140" s="47">
-        <v>0.4916666666666667</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6">
-      <c r="F141" s="48" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6">
-      <c r="F142" s="47">
-        <v>0.49444444444444446</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6">
-      <c r="F143" s="48" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6">
-      <c r="F144" s="47">
-        <v>0.49652777777777773</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6">
-      <c r="F145" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6">
-      <c r="F146" s="47">
-        <v>0.49791666666666662</v>
-      </c>
-    </row>
-    <row r="147" spans="6:6">
-      <c r="F147" s="48" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6">
-      <c r="F148" s="47">
-        <v>0.4993055555555555</v>
-      </c>
-    </row>
-    <row r="149" spans="6:6">
-      <c r="F149" s="48" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6">
-      <c r="F150" s="47">
-        <v>0.50347222222222221</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6">
-      <c r="F151" s="48" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="152" spans="6:6">
-      <c r="F152" s="47">
-        <v>0.50555555555555554</v>
-      </c>
-    </row>
-    <row r="153" spans="6:6">
-      <c r="F153" s="48" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="154" spans="6:6">
-      <c r="F154" s="47">
-        <v>0.51250000000000007</v>
-      </c>
-    </row>
-    <row r="155" spans="6:6">
-      <c r="F155" s="48" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="156" spans="6:6">
-      <c r="F156" s="47">
-        <v>0.51527777777777783</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6">
-      <c r="F157" s="48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="158" spans="6:6">
-      <c r="F158" s="47">
-        <v>0.5180555555555556</v>
-      </c>
-    </row>
-    <row r="159" spans="6:6">
-      <c r="F159" s="48" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="160" spans="6:6">
-      <c r="F160" s="47">
-        <v>0.52222222222222225</v>
-      </c>
-    </row>
-    <row r="161" spans="6:6">
-      <c r="F161" s="48" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="162" spans="6:6">
-      <c r="F162" s="47">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="6:6">
-      <c r="F163" s="48" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="164" spans="6:6">
-      <c r="F164" s="47">
-        <v>0.52708333333333335</v>
-      </c>
-    </row>
-    <row r="165" spans="6:6">
-      <c r="F165" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="166" spans="6:6">
-      <c r="F166" s="47">
-        <v>0.52986111111111112</v>
-      </c>
-    </row>
-    <row r="167" spans="6:6">
-      <c r="F167" s="48" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="168" spans="6:6">
-      <c r="F168" s="47">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="169" spans="6:6">
-      <c r="F169" s="48" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="170" spans="6:6">
-      <c r="F170" s="47">
-        <v>0.53263888888888888</v>
-      </c>
-    </row>
-    <row r="171" spans="6:6">
-      <c r="F171" s="48" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="172" spans="6:6">
-      <c r="F172" s="47">
-        <v>0.53402777777777777</v>
-      </c>
-    </row>
-    <row r="173" spans="6:6">
-      <c r="F173" s="48" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="174" spans="6:6">
-      <c r="F174" s="47">
-        <v>0.53472222222222221</v>
-      </c>
-    </row>
-    <row r="175" spans="6:6">
-      <c r="F175" s="48" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="176" spans="6:6">
-      <c r="F176" s="47">
-        <v>0.53749999999999998</v>
-      </c>
-    </row>
-    <row r="177" spans="6:6">
-      <c r="F177" s="48" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="178" spans="6:6">
-      <c r="F178" s="47">
-        <v>0.5444444444444444</v>
-      </c>
-    </row>
-    <row r="179" spans="6:6">
-      <c r="F179" s="48" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="180" spans="6:6">
-      <c r="F180" s="47">
-        <v>0.54722222222222217</v>
-      </c>
-    </row>
-    <row r="181" spans="6:6">
-      <c r="F181" s="48" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="182" spans="6:6">
-      <c r="F182" s="47">
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="183" spans="6:6">
-      <c r="F183" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="6:6">
-      <c r="F184" s="47">
-        <v>0.55138888888888882</v>
-      </c>
-    </row>
-    <row r="185" spans="6:6">
-      <c r="F185" s="48" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="186" spans="6:6">
-      <c r="F186" s="47">
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="187" spans="6:6">
-      <c r="F187" s="48" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="188" spans="6:6">
-      <c r="F188" s="47">
-        <v>0.55833333333333335</v>
-      </c>
-    </row>
-    <row r="189" spans="6:6">
-      <c r="F189" s="48" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="190" spans="6:6">
-      <c r="F190" s="47">
-        <v>0.56041666666666667</v>
-      </c>
-    </row>
-    <row r="191" spans="6:6">
-      <c r="F191" s="48" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="192" spans="6:6" ht="23.25">
-      <c r="F192" s="46" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="193" spans="6:6">
-      <c r="F193" s="47">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="194" spans="6:6">
-      <c r="F194" s="48" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="195" spans="6:6">
-      <c r="F195" s="47">
-        <v>0.56458333333333333</v>
-      </c>
-    </row>
-    <row r="196" spans="6:6">
-      <c r="F196" s="48" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="197" spans="6:6">
-      <c r="F197" s="47">
-        <v>0.56597222222222221</v>
-      </c>
-    </row>
-    <row r="198" spans="6:6">
-      <c r="F198" s="48" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="199" spans="6:6">
-      <c r="F199" s="47">
-        <v>0.56874999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="6:6">
-      <c r="F200" s="48" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="201" spans="6:6">
-      <c r="F201" s="47">
-        <v>0.57222222222222219</v>
-      </c>
-    </row>
-    <row r="202" spans="6:6">
-      <c r="F202" s="48" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="203" spans="6:6">
-      <c r="F203" s="47">
-        <v>0.57361111111111118</v>
-      </c>
-    </row>
-    <row r="204" spans="6:6">
-      <c r="F204" s="48" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="205" spans="6:6">
-      <c r="F205" s="47">
-        <v>0.57430555555555551</v>
-      </c>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" s="48" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="207" spans="6:6">
-      <c r="F207" s="47">
-        <v>0.57708333333333328</v>
-      </c>
-    </row>
-    <row r="208" spans="6:6">
-      <c r="F208" s="48" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="209" spans="6:6">
-      <c r="F209" s="47">
-        <v>0.57847222222222217</v>
-      </c>
-    </row>
-    <row r="210" spans="6:6">
-      <c r="F210" s="48" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="211" spans="6:6">
-      <c r="F211" s="47">
-        <v>0.58124999999999993</v>
-      </c>
-    </row>
-    <row r="212" spans="6:6">
-      <c r="F212" s="48" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="213" spans="6:6">
-      <c r="F213" s="47">
-        <v>0.58402777777777781</v>
-      </c>
-    </row>
-    <row r="214" spans="6:6">
-      <c r="F214" s="48" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="215" spans="6:6">
-      <c r="F215" s="47">
-        <v>0.58680555555555558</v>
-      </c>
-    </row>
-    <row r="216" spans="6:6">
-      <c r="F216" s="48" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="217" spans="6:6">
-      <c r="F217" s="47">
-        <v>0.58958333333333335</v>
-      </c>
-    </row>
-    <row r="218" spans="6:6">
-      <c r="F218" s="48" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="219" spans="6:6">
-      <c r="F219" s="47">
-        <v>0.59305555555555556</v>
-      </c>
-    </row>
-    <row r="220" spans="6:6">
-      <c r="F220" s="48" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="221" spans="6:6">
-      <c r="F221" s="47">
-        <v>0.59583333333333333</v>
-      </c>
-    </row>
-    <row r="222" spans="6:6">
-      <c r="F222" s="48" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="223" spans="6:6">
-      <c r="F223" s="47">
-        <v>0.59861111111111109</v>
-      </c>
-    </row>
-    <row r="224" spans="6:6">
-      <c r="F224" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="225" spans="6:6">
-      <c r="F225" s="47">
-        <v>0.60138888888888886</v>
-      </c>
-    </row>
-    <row r="226" spans="6:6">
-      <c r="F226" s="48" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="227" spans="6:6">
-      <c r="F227" s="47">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="228" spans="6:6">
-      <c r="F228" s="48" t="s">
-        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/Словарь.xlsx
+++ b/Словарь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="579" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Глаголы" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,19 @@
     <sheet name="Прилагательные" sheetId="7" r:id="rId6"/>
     <sheet name="Ссылки" sheetId="9" r:id="rId7"/>
     <sheet name="Лист3" sheetId="3" r:id="rId8"/>
+    <sheet name="Предлоги" sheetId="10" r:id="rId9"/>
+    <sheet name="Наречия" sheetId="11" r:id="rId10"/>
+    <sheet name="Вопросы" sheetId="12" r:id="rId11"/>
+    <sheet name="Союзы" sheetId="13" r:id="rId12"/>
+    <sheet name="Родственники" sheetId="14" r:id="rId13"/>
+    <sheet name="Время Сезоны" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="751">
   <si>
     <t>antworten</t>
   </si>
@@ -3534,13 +3540,190 @@
   </si>
   <si>
     <t>regelmäßig</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>dort</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>hier</t>
+  </si>
+  <si>
+    <t>nach</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>ferien</t>
+  </si>
+  <si>
+    <t>die geschichte</t>
+  </si>
+  <si>
+    <t>auf</t>
+  </si>
+  <si>
+    <t>unter</t>
+  </si>
+  <si>
+    <t>über</t>
+  </si>
+  <si>
+    <t>brille</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>vor</t>
+  </si>
+  <si>
+    <t>hinter</t>
+  </si>
+  <si>
+    <t>neben</t>
+  </si>
+  <si>
+    <t>zwischen</t>
+  </si>
+  <si>
+    <t>gegenüber</t>
+  </si>
+  <si>
+    <t>geschäft</t>
+  </si>
+  <si>
+    <t>bei</t>
+  </si>
+  <si>
+    <t>gestern</t>
+  </si>
+  <si>
+    <t>morgen</t>
+  </si>
+  <si>
+    <t>heute</t>
+  </si>
+  <si>
+    <t>WOHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ins</t>
+  </si>
+  <si>
+    <t>durch</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>WOHER</t>
+  </si>
+  <si>
+    <t>wort</t>
+  </si>
+  <si>
+    <t>flugzeug</t>
+  </si>
+  <si>
+    <t>gerade</t>
+  </si>
+  <si>
+    <t>gepäck</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>koffer</t>
+  </si>
+  <si>
+    <t>doch</t>
+  </si>
+  <si>
+    <t>aber</t>
+  </si>
+  <si>
+    <t>hafen</t>
+  </si>
+  <si>
+    <t>flughafen</t>
+  </si>
+  <si>
+    <t>teil</t>
+  </si>
+  <si>
+    <t>kollege</t>
+  </si>
+  <si>
+    <t>etwas</t>
+  </si>
+  <si>
+    <t>urlaub</t>
+  </si>
+  <si>
+    <t>zoll</t>
+  </si>
+  <si>
+    <t>die begrüßung</t>
+  </si>
+  <si>
+    <t>draussen</t>
+  </si>
+  <si>
+    <t>sofort</t>
+  </si>
+  <si>
+    <t>tochter</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>wohin</t>
+  </si>
+  <si>
+    <t>woher</t>
+  </si>
+  <si>
+    <t>jetzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liebe </t>
+  </si>
+  <si>
+    <t>liebst</t>
+  </si>
+  <si>
+    <t>liebt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geliebt </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3721,6 +3904,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18.7"/>
+      <color rgb="FF333333"/>
+      <name val="GothaPro"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3891,7 +4080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3970,6 +4159,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4314,6 +4506,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169216</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="Picture background"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2228850" y="447675"/>
+          <a:ext cx="8113066" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -4601,9 +4838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4622,14 +4859,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -4638,21 +4875,21 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -4684,8 +4921,8 @@
       <c r="I3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="M3" s="8" t="s">
         <v>236</v>
       </c>
@@ -6804,72 +7041,99 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:11">
       <c r="B145" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:11">
       <c r="B146" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:11">
       <c r="B147" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:11">
       <c r="B148" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:11">
       <c r="B149" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:11">
       <c r="B151" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:11">
       <c r="B152" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:11">
       <c r="B154" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:11">
       <c r="B155" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:11">
       <c r="B156" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:11">
       <c r="B157" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:11">
       <c r="B158" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:11">
       <c r="B159" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="160" spans="2:2">
+      <c r="C159" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
       <c r="B160" s="2" t="s">
         <v>326</v>
       </c>
@@ -6987,11 +7251,187 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -7236,7 +7676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -10610,26 +11050,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -10639,10 +11154,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11347,72 +11862,77 @@
         <v>599</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="23.25">
-      <c r="A128" s="43" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="45" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="45" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="23.25">
+      <c r="A129" s="43" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="45" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="B131" s="45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="45" t="s">
-        <v>689</v>
-      </c>
-      <c r="B136" s="45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="45" t="s">
-        <v>691</v>
+        <v>689</v>
+      </c>
+      <c r="B137" s="45" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="45" t="s">
-        <v>601</v>
+        <v>691</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="45" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B140" s="45" t="s">
         <v>603</v>
       </c>
     </row>
@@ -11692,4 +12212,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="33" style="8" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="24">
+      <c r="B2" s="46" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="24">
+      <c r="B16" s="46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="24">
+      <c r="B23" s="46" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Словарь.xlsx
+++ b/Словарь.xlsx
@@ -18,16 +18,17 @@
     <sheet name="Предлоги" sheetId="10" r:id="rId9"/>
     <sheet name="Наречия" sheetId="11" r:id="rId10"/>
     <sheet name="Вопросы" sheetId="12" r:id="rId11"/>
-    <sheet name="Союзы" sheetId="13" r:id="rId12"/>
+    <sheet name="Союзы и частицы" sheetId="13" r:id="rId12"/>
     <sheet name="Родственники" sheetId="14" r:id="rId13"/>
     <sheet name="Время Сезоны" sheetId="15" r:id="rId14"/>
+    <sheet name="Числительные" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="805">
   <si>
     <t>antworten</t>
   </si>
@@ -3095,9 +3096,6 @@
     <t>lang</t>
   </si>
   <si>
-    <t>es ist noch weit ja der Weg ist noch</t>
-  </si>
-  <si>
     <t>kurz</t>
   </si>
   <si>
@@ -3717,13 +3715,178 @@
   </si>
   <si>
     <t xml:space="preserve">geliebt </t>
+  </si>
+  <si>
+    <t>wieder</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>preiswert</t>
+  </si>
+  <si>
+    <t>empfang</t>
+  </si>
+  <si>
+    <t>der empfangschef</t>
+  </si>
+  <si>
+    <t>einzelnen</t>
+  </si>
+  <si>
+    <t>doppel</t>
+  </si>
+  <si>
+    <t>doppelt</t>
+  </si>
+  <si>
+    <t>einzel</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dusche</t>
+  </si>
+  <si>
+    <t>zimmer</t>
+  </si>
+  <si>
+    <t>zentral</t>
+  </si>
+  <si>
+    <t>heizung</t>
+  </si>
+  <si>
+    <t>mehr</t>
+  </si>
+  <si>
+    <t>weniger</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t>denn</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>bruder</t>
+  </si>
+  <si>
+    <t>schwester</t>
+  </si>
+  <si>
+    <t>autovermietung</t>
+  </si>
+  <si>
+    <t>es ist noch weit. ja der Weg ist noch</t>
+  </si>
+  <si>
+    <t>führerschein</t>
+  </si>
+  <si>
+    <t>reservierung</t>
+  </si>
+  <si>
+    <t>zimmerreservierung</t>
+  </si>
+  <si>
+    <t>für</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>ausweis</t>
+  </si>
+  <si>
+    <t>personalausweis</t>
+  </si>
+  <si>
+    <t>nur</t>
+  </si>
+  <si>
+    <t>meldezettel</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>diener</t>
+  </si>
+  <si>
+    <t>hoteldiener</t>
+  </si>
+  <si>
+    <t>wen</t>
+  </si>
+  <si>
+    <t>oben</t>
+  </si>
+  <si>
+    <t>selbst</t>
+  </si>
+  <si>
+    <t>schlüssel</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>lieber</t>
+  </si>
+  <si>
+    <t>gern</t>
+  </si>
+  <si>
+    <t>schon</t>
+  </si>
+  <si>
+    <t>Произношение</t>
+  </si>
+  <si>
+    <t>https://de.wiktionary.org</t>
+  </si>
+  <si>
+    <t>https://youglish.com/german</t>
+  </si>
+  <si>
+    <t>Произношение поиск на youtube</t>
+  </si>
+  <si>
+    <t>paar</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>leider</t>
+  </si>
+  <si>
+    <t>ordnung</t>
+  </si>
+  <si>
+    <t>in begriffen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3910,6 +4073,15 @@
       <color rgb="FF333333"/>
       <name val="GothaPro"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4080,7 +4252,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4171,6 +4343,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4512,13 +4685,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>169216</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4836,11 +5009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M175"/>
+  <dimension ref="B1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5221,31 +5394,31 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="36" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>434</v>
+        <v>519</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>435</v>
+        <v>520</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -5279,1964 +5452,1996 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="36" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>411</v>
+        <v>501</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="36" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>367</v>
+        <v>511</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>368</v>
+        <v>510</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="36" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="36" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>441</v>
+        <v>21</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>496</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="36" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>498</v>
+        <v>366</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>499</v>
+        <v>368</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>499</v>
+        <v>368</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>500</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="36" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>509</v>
+      <c r="B23" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="39" customFormat="1">
+      <c r="B24" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="36" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>289</v>
+        <v>497</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>290</v>
+        <v>499</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>290</v>
+        <v>499</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="K25" s="38"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="39" customFormat="1">
+      <c r="B27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>516</v>
+        <v>378</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>517</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>518</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>519</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>518</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>521</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>355</v>
+        <v>514</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>357</v>
+        <v>516</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>357</v>
+        <v>516</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>358</v>
+        <v>300</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="s">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>522</v>
+        <v>355</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>523</v>
+        <v>356</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>524</v>
+        <v>31</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>352</v>
+        <v>532</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>353</v>
+        <v>532</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>354</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="2:10">
+      <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="2:10">
+      <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>42</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>463</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>471</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>473</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>293</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="2" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
-        <v>446</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="2:11">
       <c r="B148" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="2" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="2" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="2:11">
       <c r="B159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>750</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="B160" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="2:11">
       <c r="B161" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="2:11">
       <c r="B163" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="2:11">
       <c r="B164" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="2:11">
       <c r="B165" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="2:11">
       <c r="B166" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="2:11">
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="2:11">
       <c r="B171" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="2:11">
       <c r="B173" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="2:11">
       <c r="B174" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="175" spans="2:11" s="37" customFormat="1">
-      <c r="B175" s="36" t="s">
+    <row r="176" spans="2:11" s="37" customFormat="1">
+      <c r="B176" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C175" s="36" t="s">
+      <c r="C176" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="36" t="s">
+      <c r="D176" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E175" s="36" t="s">
+      <c r="E176" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F175" s="36" t="s">
+      <c r="F176" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="G175" s="36" t="s">
+      <c r="G176" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H175" s="36" t="s">
+      <c r="H176" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="I175" s="36" t="s">
+      <c r="I176" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="J175" s="36" t="s">
+      <c r="J176" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="K175" s="36"/>
+      <c r="K176" s="36"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
+        <v>784</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7253,10 +7458,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7266,57 +7471,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -7326,10 +7591,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7339,27 +7604,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>745</v>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -7369,10 +7639,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7382,12 +7652,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -7397,17 +7682,30 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -7427,12 +7725,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7676,7 +7986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC161"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -11050,10 +11360,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11074,90 +11384,211 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21">
+      <c r="A38" s="50" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11184,756 +11615,795 @@
       </c>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>755</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>756</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>763</v>
+      </c>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.25">
+      <c r="A11" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="F7" s="44"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="45" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="45" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="45" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>609</v>
-      </c>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>611</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.25">
-      <c r="A15" s="43" t="s">
-        <v>545</v>
+      <c r="A13" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="45" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="45" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>613</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>550</v>
+      <c r="A19" s="45" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="45" t="s">
-        <v>551</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="45" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="45" t="s">
-        <v>614</v>
+      <c r="A20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23.25">
+      <c r="A22" s="43" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="45" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="45" t="s">
-        <v>617</v>
+        <v>280</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>618</v>
+      <c r="A25" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="45" t="s">
-        <v>619</v>
+      <c r="A26" t="s">
+        <v>612</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>620</v>
+      <c r="A27" s="45" t="s">
+        <v>550</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>621</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="45" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="45" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="46.5">
-      <c r="A31" s="43" t="s">
-        <v>558</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="45" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>559</v>
+      <c r="A32" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>280</v>
+      <c r="A33" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="45" t="s">
-        <v>624</v>
+      <c r="A34" t="s">
+        <v>619</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>626</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="45" t="s">
-        <v>625</v>
+        <v>555</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="45" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>628</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>563</v>
+        <v>622</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="46.5">
+      <c r="A38" s="43" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>629</v>
+      <c r="A39" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>630</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>631</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="45" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="45" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="23.25">
-      <c r="A44" s="43" t="s">
-        <v>566</v>
+        <v>624</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="45" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="45" t="s">
-        <v>633</v>
+      <c r="A45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="45" t="s">
-        <v>634</v>
+      <c r="A46" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="45" t="s">
-        <v>635</v>
+      <c r="A47" t="s">
+        <v>629</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="45" t="s">
-        <v>637</v>
+        <v>631</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="45" t="s">
-        <v>638</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="45" t="s">
-        <v>640</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="23.25">
+      <c r="A51" s="43" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="45" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="45" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="45" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="45" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="45" t="s">
-        <v>646</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="45" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="45" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="45" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="45" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="45"/>
-    </row>
-    <row r="62" spans="1:2" ht="23.25">
-      <c r="A62" s="43" t="s">
-        <v>568</v>
+      <c r="A61" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="45" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="45" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="45" t="s">
-        <v>277</v>
+        <v>646</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="45" t="s">
-        <v>653</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>569</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="45" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="45" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>658</v>
+      <c r="A68" s="45"/>
+    </row>
+    <row r="69" spans="1:2" ht="23.25">
+      <c r="A69" s="43" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="45" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="45" t="s">
-        <v>660</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="45" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>662</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45" t="s">
-        <v>571</v>
+      <c r="A74" s="45" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45" t="s">
-        <v>572</v>
+      <c r="A75" s="45" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:2">
+      <c r="A76" s="45" t="s">
+        <v>656</v>
+      </c>
       <c r="B76" s="45" t="s">
-        <v>573</v>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="45" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="45" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="23.25">
+      <c r="A88" s="43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="45" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="45" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="23.25">
-      <c r="A81" s="43" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="45" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="45" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="45" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="45" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" s="45" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="45" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="B88" s="45" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="45" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="45" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="45" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="45" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" s="45" t="s">
-        <v>585</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="45" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="45" t="s">
-        <v>586</v>
+      <c r="B95" s="45" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="45" t="s">
-        <v>665</v>
+      <c r="B96" s="45" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="45" t="s">
-        <v>587</v>
+      <c r="B97" s="45" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="45" t="s">
-        <v>587</v>
+      <c r="B98" s="45" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="45" t="s">
-        <v>666</v>
+      <c r="B99" s="45" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" s="45" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="45" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="B102" s="45" t="s">
-        <v>590</v>
+      <c r="A102" s="45" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="45"/>
+      <c r="A103" s="45" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="45" t="s">
-        <v>667</v>
+        <v>586</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="45" t="s">
-        <v>668</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="45" t="s">
-        <v>669</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="45" t="s">
-        <v>591</v>
+      <c r="B107" s="45" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="45" t="s">
-        <v>670</v>
+      <c r="B108" s="45" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="45" t="s">
-        <v>672</v>
+      <c r="B109" s="45" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="45" t="s">
-        <v>674</v>
-      </c>
+      <c r="A110" s="45"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>592</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="45" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="45" t="s">
-        <v>675</v>
+        <v>668</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="45" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="45" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="45" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="B117" s="45" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="45" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="45" t="s">
-        <v>680</v>
+        <v>672</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="45" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="B121" s="45" t="s">
-        <v>595</v>
+      <c r="A121" s="45" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="B122" s="45" t="s">
-        <v>681</v>
+      <c r="A122" s="45" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="45"/>
+      <c r="A123" s="45" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="45" t="s">
-        <v>596</v>
+        <v>592</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="B125" s="45" t="s">
-        <v>597</v>
+      <c r="A125" s="45" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="B126" s="45" t="s">
-        <v>598</v>
+      <c r="A126" s="45" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="45" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="45" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="23.25">
-      <c r="A129" s="43" t="s">
-        <v>600</v>
+      <c r="B128" s="45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129" s="45" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="45" t="s">
-        <v>600</v>
-      </c>
+      <c r="A130" s="45"/>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="45" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="45" t="s">
-        <v>683</v>
-      </c>
       <c r="B132" s="45" t="s">
-        <v>684</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="45" t="s">
-        <v>685</v>
+      <c r="B133" s="45" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="45" t="s">
-        <v>686</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="45" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="45" t="s">
-        <v>688</v>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="23.25">
+      <c r="A136" s="43" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="45" t="s">
-        <v>689</v>
-      </c>
-      <c r="B137" s="45" t="s">
-        <v>690</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="45" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="45" t="s">
-        <v>601</v>
+        <v>682</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="45" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="45" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="45" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="45" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="B144" s="45" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="45" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="45" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="B147" s="45" t="s">
         <v>602</v>
-      </c>
-      <c r="B140" s="45" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -11944,10 +12414,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11972,10 +12442,28 @@
         <v>287</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>798</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12216,10 +12704,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B25"/>
+  <dimension ref="B1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12228,114 +12716,124 @@
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="24">
-      <c r="B2" s="46" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="8" t="s">
-        <v>707</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="24">
+      <c r="B4" s="46" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="8" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="8" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="24">
-      <c r="B16" s="46" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8" t="s">
-        <v>719</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="24">
+      <c r="B18" s="46" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="8" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="24">
+      <c r="B25" s="46" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="24">
-      <c r="B23" s="46" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="8" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="8" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/Словарь.xlsx
+++ b/Словарь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="845"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Глаголы" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="868">
   <si>
     <t>antworten</t>
   </si>
@@ -3880,6 +3880,195 @@
   </si>
   <si>
     <t>in begriffen</t>
+  </si>
+  <si>
+    <t>wann</t>
+  </si>
+  <si>
+    <t>mittag</t>
+  </si>
+  <si>
+    <t>verwandten</t>
+  </si>
+  <si>
+    <t>halb</t>
+  </si>
+  <si>
+    <t>hof</t>
+  </si>
+  <si>
+    <t>werk</t>
+  </si>
+  <si>
+    <t>werkstatt</t>
+  </si>
+  <si>
+    <t>vater</t>
+  </si>
+  <si>
+    <t>wenig</t>
+  </si>
+  <si>
+    <t>viel</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>genug</t>
+  </si>
+  <si>
+    <t>biß</t>
+  </si>
+  <si>
+    <t>bißchen</t>
+  </si>
+  <si>
+    <t>oft</t>
+  </si>
+  <si>
+    <t>selten</t>
+  </si>
+  <si>
+    <t>immer</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>bekanntschaft</t>
+  </si>
+  <si>
+    <t>schachtel</t>
+  </si>
+  <si>
+    <t>dann</t>
+  </si>
+  <si>
+    <t>verständlich</t>
+  </si>
+  <si>
+    <t>selbstverständlich</t>
+  </si>
+  <si>
+    <t>zusammen</t>
+  </si>
+  <si>
+    <t>gespräch</t>
+  </si>
+  <si>
+    <t>herz</t>
+  </si>
+  <si>
+    <t>herzlich</t>
+  </si>
+  <si>
+    <t>bummel</t>
+  </si>
+  <si>
+    <t>stadtbummel</t>
+  </si>
+  <si>
+    <t>einverstanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>straßenbahn</t>
+  </si>
+  <si>
+    <t>straßen</t>
+  </si>
+  <si>
+    <t>bahn</t>
+  </si>
+  <si>
+    <t>straßenbahnfahrt</t>
+  </si>
+  <si>
+    <t>beruf</t>
+  </si>
+  <si>
+    <t>kontrolleur</t>
+  </si>
+  <si>
+    <t>spaß</t>
+  </si>
+  <si>
+    <t>höflich</t>
+  </si>
+  <si>
+    <t>ausländer</t>
+  </si>
+  <si>
+    <t>ziemlich</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>stunde</t>
+  </si>
+  <si>
+    <t>gewöhnlich</t>
+  </si>
+  <si>
+    <t>fremd</t>
+  </si>
+  <si>
+    <t>nähe</t>
+  </si>
+  <si>
+    <t>ahnung</t>
+  </si>
+  <si>
+    <t>auskunft</t>
+  </si>
+  <si>
+    <t>schaffner</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>rathaus</t>
+  </si>
+  <si>
+    <t>steigen</t>
+  </si>
+  <si>
+    <t>mitte</t>
+  </si>
+  <si>
+    <t>richtung</t>
+  </si>
+  <si>
+    <t>umsteigen</t>
+  </si>
+  <si>
+    <t>fuß</t>
+  </si>
+  <si>
+    <t>direkt</t>
+  </si>
+  <si>
+    <t>entlang</t>
+  </si>
+  <si>
+    <t>fahrschein</t>
+  </si>
+  <si>
+    <t>schein</t>
+  </si>
+  <si>
+    <t>fahrte</t>
+  </si>
+  <si>
+    <t>stück</t>
+  </si>
+  <si>
+    <t>hilfe</t>
   </si>
 </sst>
 </file>
@@ -4304,9 +4493,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4334,6 +4520,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4343,7 +4530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5009,11 +5196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M177"/>
+  <dimension ref="B1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5101,2345 +5288,2327 @@
       </c>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="18.75">
-      <c r="B4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="35"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="18.75">
       <c r="B5" s="2"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="18.75">
-      <c r="B6" s="2"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="2:13" s="37" customFormat="1" ht="18.75">
-      <c r="B7" s="36" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="2:13" s="36" customFormat="1" ht="18.75">
+      <c r="B6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="M7" s="8" t="s">
+      <c r="K6" s="35"/>
+      <c r="M6" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="37" customFormat="1">
-      <c r="B8" s="36" t="s">
+    <row r="7" spans="2:13" s="36" customFormat="1">
+      <c r="B7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="2:13" s="37" customFormat="1">
-      <c r="B9" s="36" t="s">
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="2:13" s="36" customFormat="1">
+      <c r="B8" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:13" s="39" customFormat="1">
-      <c r="B10" s="36" t="s">
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="2:13" s="38" customFormat="1">
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="2:13" s="39" customFormat="1">
-      <c r="B11" s="36" t="s">
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="2:13" s="38" customFormat="1">
+      <c r="B10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>84</v>
+      <c r="B12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>89</v>
+      <c r="B13" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>483</v>
+      <c r="B14" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>521</v>
+      <c r="B15" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>487</v>
+      <c r="B16" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>504</v>
+      <c r="B17" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>513</v>
+      <c r="B18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>436</v>
+      <c r="B19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>412</v>
+      <c r="B20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>369</v>
+      <c r="B21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>492</v>
+      <c r="B22" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>496</v>
-      </c>
+      <c r="B23" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="J24" s="36"/>
+      <c r="B24" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="39" customFormat="1">
-      <c r="B27" s="36" t="s">
+    <row r="26" spans="2:11" s="38" customFormat="1">
+      <c r="B26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G26" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J26" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="38"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>514</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>515</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>516</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>100</v>
+        <v>516</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>101</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>514</v>
+        <v>355</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>515</v>
+        <v>356</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>517</v>
+        <v>31</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>444</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>355</v>
+        <v>522</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>356</v>
+        <v>523</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>357</v>
+        <v>523</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>31</v>
+        <v>444</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>357</v>
+        <v>523</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>31</v>
+        <v>444</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>358</v>
+        <v>444</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>531</v>
+        <v>351</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>532</v>
+        <v>353</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>533</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J37" s="2" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J52" s="2" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>345</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>176</v>
+        <v>345</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>345</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="2" t="s">
+    <row r="68" spans="2:10">
+      <c r="B68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="2" t="s">
+    <row r="70" spans="2:10">
+      <c r="B70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J74" s="2" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J77" s="2" t="s">
         <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>402</v>
+        <v>106</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J83" s="2" t="s">
         <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J89" s="2" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J95" s="2" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>462</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>42</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>45</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>472</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>292</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>473</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="2" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="2" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
-        <v>305</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="2:11">
       <c r="B148" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="2" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="2" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="2:11">
       <c r="B159" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="B160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
       <c r="B161" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
       <c r="B162" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
       <c r="B163" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
       <c r="B164" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
       <c r="B165" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
       <c r="B166" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
       <c r="B167" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:2">
       <c r="B168" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:2">
       <c r="B169" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="2" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="2" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
-      <c r="B172" s="2" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="2" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="2" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
-      <c r="B175" s="2" t="s">
+    <row r="176" spans="2:2">
+      <c r="B176" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="176" spans="2:11" s="37" customFormat="1">
-      <c r="B176" s="36" t="s">
+    <row r="177" spans="2:11" s="36" customFormat="1">
+      <c r="B177" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="36" t="s">
+      <c r="C177" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D176" s="36" t="s">
+      <c r="D177" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="36" t="s">
+      <c r="E177" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="F176" s="36" t="s">
+      <c r="F177" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="G176" s="36" t="s">
+      <c r="G177" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="H176" s="36" t="s">
+      <c r="H177" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I176" s="36" t="s">
+      <c r="I177" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="J176" s="36" t="s">
+      <c r="J177" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="K176" s="36"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="2" t="s">
+      <c r="K177" s="35"/>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="2" t="s">
         <v>784</v>
       </c>
     </row>
@@ -7458,10 +7627,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7471,117 +7640,220 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>804</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
         <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75">
+      <c r="A36" s="50" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75">
+      <c r="A37" s="50" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C49" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -7591,10 +7863,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7617,32 +7889,38 @@
         <v>788</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>742</v>
-      </c>
-    </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7675,6 +7953,11 @@
         <v>782</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="18.75">
+      <c r="A6" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7682,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7706,6 +7989,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +8275,7 @@
   <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11360,10 +11648,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11552,28 +11840,227 @@
         <v>803</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75">
       <c r="A38" s="50" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75">
+      <c r="A39" s="50" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75">
+      <c r="A40" s="50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75">
+      <c r="A41" s="50" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75">
+      <c r="A42" s="50" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75">
+      <c r="A43" s="50" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75">
+      <c r="A46" s="50" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75">
+      <c r="A47" s="50" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75">
+      <c r="A48" s="50" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75">
+      <c r="A49" s="50" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75">
+      <c r="A50" s="50" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75">
+      <c r="A51" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75">
+      <c r="A52" s="50" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75">
+      <c r="A53" s="50" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75">
+      <c r="A54" s="50" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75">
+      <c r="A55" s="50" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75">
+      <c r="A56" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75">
+      <c r="A57" s="50" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75">
+      <c r="A58" s="50" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75">
+      <c r="A59" s="50" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75">
+      <c r="A60" s="50" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75">
+      <c r="A61" s="50" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75">
+      <c r="A62" s="50" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75">
+      <c r="A63" s="50" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75">
+      <c r="A64" s="50" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75">
+      <c r="A65" s="50" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75">
+      <c r="A66" s="50" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75">
+      <c r="A67" s="50" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75">
+      <c r="A68" s="50" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75">
+      <c r="A69" s="50" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75">
+      <c r="A70" s="50" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75">
+      <c r="A71" s="50" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75">
+      <c r="A72" s="50" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75">
+      <c r="A73" s="50" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75">
+      <c r="A74" s="50" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75">
+      <c r="A75" s="50"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75">
+      <c r="A76" s="50"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75">
+      <c r="A77" s="50"/>
+    </row>
+    <row r="78" spans="1:1" ht="21">
+      <c r="A78" s="46" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="8" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="8" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="8" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="8" t="s">
         <v>764</v>
       </c>
     </row>
@@ -11585,10 +12072,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11607,802 +12094,832 @@
       <c r="A2" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>751</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>752</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>758</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>755</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>756</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>763</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="F10" s="44"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.25">
-      <c r="A11" s="43" t="s">
+      <c r="A10" t="s">
+        <v>826</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>827</v>
+      </c>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>843</v>
+      </c>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>849</v>
+      </c>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25">
+      <c r="A16" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="45" t="s">
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="45" t="s">
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="45" t="s">
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="F14" s="44"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="44" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="45" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="44" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="45" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="44" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="45" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="45" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="44" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25">
-      <c r="A22" s="43" t="s">
+    <row r="27" spans="1:6" ht="23.25">
+      <c r="A27" s="42" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="45" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="45" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="45" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="44" t="s">
         <v>611</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>612</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="45" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="45" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="44" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="45" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="44" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="45" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="45" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="44" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="45" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>619</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="45" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="45" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="44" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="45" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="46.5">
-      <c r="A38" s="43" t="s">
+    <row r="43" spans="1:2" ht="46.5">
+      <c r="A43" s="42" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="45" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="45" t="s">
-        <v>623</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="45" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="44" t="s">
+        <v>623</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="44" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>627</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>629</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B52" s="44" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="45" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B53" s="44" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="45" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="44" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="23.25">
-      <c r="A51" s="43" t="s">
+    <row r="56" spans="1:2" ht="23.25">
+      <c r="A56" s="42" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="45" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="44" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="45" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="44" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="45" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="45" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="44" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="45" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="44" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="45" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B62" s="44" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="45" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="44" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="45" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="44" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="45" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="44" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="45" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="44" t="s">
         <v>642</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="45" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="45" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="44" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="45" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B69" s="44" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="45" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="44" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="45" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="44" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="45" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="44" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="45"/>
-    </row>
-    <row r="69" spans="1:2" ht="23.25">
-      <c r="A69" s="43" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="44"/>
+    </row>
+    <row r="74" spans="1:2" ht="23.25">
+      <c r="A74" s="42" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="45" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="45" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="45" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B77" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="45" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B78" s="44" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="45" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="44" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="45" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="44" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="45" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B81" s="44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="45" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="44" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="45" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="44" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="45" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B84" s="44" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="45" t="s">
+    <row r="88" spans="1:2">
+      <c r="B88" s="44" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="45" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="44" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="45" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="44" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="23.25">
-      <c r="A88" s="43" t="s">
+    <row r="93" spans="1:2" ht="23.25">
+      <c r="A93" s="42" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="45" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="44" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="45" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="44" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="45" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="44" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="45" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B97" s="44" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="45" t="s">
+    <row r="98" spans="1:2">
+      <c r="B98" s="44" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="45" t="s">
+    <row r="99" spans="1:2">
+      <c r="B99" s="44" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="45" t="s">
+    <row r="100" spans="1:2">
+      <c r="B100" s="44" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="45" t="s">
+    <row r="101" spans="1:2">
+      <c r="B101" s="44" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="B97" s="45" t="s">
+    <row r="102" spans="1:2">
+      <c r="B102" s="44" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="B98" s="45" t="s">
+    <row r="103" spans="1:2">
+      <c r="B103" s="44" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="B99" s="45" t="s">
+    <row r="104" spans="1:2">
+      <c r="B104" s="44" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="B100" s="45" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" s="44" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="45" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="44" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="45" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="44" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="45" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="44" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="45" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="44" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="45" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="44" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="45" t="s">
+    <row r="112" spans="1:2">
+      <c r="B112" s="44" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="B108" s="45" t="s">
+    <row r="113" spans="1:2">
+      <c r="B113" s="44" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="45" t="s">
+    <row r="114" spans="1:2">
+      <c r="B114" s="44" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="45"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="45" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="44"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="44" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="45" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="44" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="45" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="44" t="s">
         <v>668</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B118" s="44" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="45" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="44" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="45" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="44" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="45" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="44" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="45" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="44" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="45" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B123" s="44" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="45" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="44" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="45" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="44" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="45" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="44" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="45" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="44" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="45" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B124" s="45" t="s">
+      <c r="B129" s="44" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="45" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="44" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="45" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="44" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="45" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="44" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="B128" s="45" t="s">
+    <row r="133" spans="1:2">
+      <c r="B133" s="44" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="B129" s="45" t="s">
+    <row r="134" spans="1:2">
+      <c r="B134" s="44" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="45"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="45" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="44"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="44" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="B132" s="45" t="s">
+    <row r="137" spans="1:2">
+      <c r="B137" s="44" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="B133" s="45" t="s">
+    <row r="138" spans="1:2">
+      <c r="B138" s="44" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="45" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="44" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="45" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="44" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="23.25">
-      <c r="A136" s="43" t="s">
+    <row r="141" spans="1:2" ht="23.25">
+      <c r="A141" s="42" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="45" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="44" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="45" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="44" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="45" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="44" t="s">
         <v>682</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B144" s="44" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="45" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="44" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="45" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="44" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="45" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="44" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="45" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="44" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="45" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="44" t="s">
         <v>688</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B149" s="44" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="45" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="44" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="45" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="44" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="45" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="B147" s="45" t="s">
+      <c r="B152" s="44" t="s">
         <v>602</v>
       </c>
     </row>
@@ -12474,7 +12991,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12707,7 +13224,7 @@
   <dimension ref="B1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12727,7 +13244,7 @@
       </c>
     </row>
     <row r="4" spans="2:2" ht="24">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>705</v>
       </c>
     </row>
@@ -12792,7 +13309,7 @@
       </c>
     </row>
     <row r="18" spans="2:2" ht="24">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>717</v>
       </c>
     </row>
@@ -12822,7 +13339,7 @@
       </c>
     </row>
     <row r="25" spans="2:2" ht="24">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>721</v>
       </c>
     </row>

--- a/Словарь.xlsx
+++ b/Словарь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="845" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Глаголы" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="873">
   <si>
     <t>antworten</t>
   </si>
@@ -4069,6 +4069,21 @@
   </si>
   <si>
     <t>hilfe</t>
+  </si>
+  <si>
+    <t>vorn</t>
+  </si>
+  <si>
+    <t>vorsicht</t>
+  </si>
+  <si>
+    <t>hinten</t>
+  </si>
+  <si>
+    <t>hälfte</t>
+  </si>
+  <si>
+    <t>dauern</t>
   </si>
 </sst>
 </file>
@@ -4521,6 +4536,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4530,7 +4546,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5196,11 +5211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M178"/>
+  <dimension ref="B1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5219,14 +5234,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -5235,21 +5250,21 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="18.75">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="47" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="48" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -5281,8 +5296,8 @@
       <c r="I3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
       <c r="M3" s="8" t="s">
         <v>236</v>
       </c>
@@ -7610,6 +7625,11 @@
     <row r="178" spans="2:11">
       <c r="B178" s="2" t="s">
         <v>784</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="2" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -7627,10 +7647,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7779,12 +7799,12 @@
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="47" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7854,6 +7874,16 @@
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -11650,8 +11680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11846,32 +11876,32 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="47" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="47" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="47" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="47" t="s">
         <v>818</v>
       </c>
     </row>
@@ -11886,158 +11916,162 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="47" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="47" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="47" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="47" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="47" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="47" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="47" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="47" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="47" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="47" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="47" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="47" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="47" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="47" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="47" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="47" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="47" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="47" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="47" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="47" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="47" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="47" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="47" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="47" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="47" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75">
-      <c r="A75" s="50"/>
+      <c r="A75" s="47" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="76" spans="1:1" ht="15.75">
-      <c r="A76" s="50"/>
+      <c r="A76" s="47" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="77" spans="1:1" ht="15.75">
-      <c r="A77" s="50"/>
+      <c r="A77" s="47"/>
     </row>
     <row r="78" spans="1:1" ht="21">
       <c r="A78" s="46" t="s">
@@ -12074,8 +12108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
